--- a/NatmiData/natmiOut_TPM/YoungD4/LR-pairs_lrc2p/Pgf-Flt1.xlsx
+++ b/NatmiData/natmiOut_TPM/YoungD4/LR-pairs_lrc2p/Pgf-Flt1.xlsx
@@ -14,7 +14,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="100" uniqueCount="27">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="80" uniqueCount="27">
   <si>
     <t>Sending cluster</t>
   </si>
@@ -85,16 +85,16 @@
     <t>MuSCs</t>
   </si>
   <si>
+    <t>Pgf</t>
+  </si>
+  <si>
+    <t>Flt1</t>
+  </si>
+  <si>
+    <t>Inflammatory-Mac</t>
+  </si>
+  <si>
     <t>Resolving-Mac</t>
-  </si>
-  <si>
-    <t>Pgf</t>
-  </si>
-  <si>
-    <t>Flt1</t>
-  </si>
-  <si>
-    <t>Inflammatory-Mac</t>
   </si>
 </sst>
 </file>
@@ -452,7 +452,7 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:T21"/>
+  <dimension ref="A1:T16"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
@@ -525,10 +525,10 @@
         <v>20</v>
       </c>
       <c r="B2" t="s">
+        <v>23</v>
+      </c>
+      <c r="C2" t="s">
         <v>24</v>
-      </c>
-      <c r="C2" t="s">
-        <v>25</v>
       </c>
       <c r="D2" t="s">
         <v>20</v>
@@ -540,16 +540,16 @@
         <v>1</v>
       </c>
       <c r="G2">
-        <v>14.02404766666667</v>
+        <v>11.85836666666667</v>
       </c>
       <c r="H2">
-        <v>42.072143</v>
+        <v>35.5751</v>
       </c>
       <c r="I2">
-        <v>0.884078128941323</v>
+        <v>0.8573549290250688</v>
       </c>
       <c r="J2">
-        <v>0.884078128941323</v>
+        <v>0.8573549290250688</v>
       </c>
       <c r="K2">
         <v>3</v>
@@ -558,28 +558,28 @@
         <v>1</v>
       </c>
       <c r="M2">
-        <v>126.660156</v>
+        <v>106.5570066666667</v>
       </c>
       <c r="N2">
-        <v>379.980468</v>
+        <v>319.67102</v>
       </c>
       <c r="O2">
-        <v>0.9724734733029194</v>
+        <v>0.956549115742331</v>
       </c>
       <c r="P2">
-        <v>0.9724734733029196</v>
+        <v>0.956549115742331</v>
       </c>
       <c r="Q2">
-        <v>1776.288065211436</v>
+        <v>1263.592055955778</v>
       </c>
       <c r="R2">
-        <v>15986.59258690292</v>
+        <v>11372.328503602</v>
       </c>
       <c r="S2">
-        <v>0.8597425287227146</v>
+        <v>0.8201020992362585</v>
       </c>
       <c r="T2">
-        <v>0.8597425287227147</v>
+        <v>0.8201020992362585</v>
       </c>
     </row>
     <row r="3" spans="1:20">
@@ -587,10 +587,10 @@
         <v>20</v>
       </c>
       <c r="B3" t="s">
+        <v>23</v>
+      </c>
+      <c r="C3" t="s">
         <v>24</v>
-      </c>
-      <c r="C3" t="s">
-        <v>25</v>
       </c>
       <c r="D3" t="s">
         <v>21</v>
@@ -602,16 +602,16 @@
         <v>1</v>
       </c>
       <c r="G3">
-        <v>14.02404766666667</v>
+        <v>11.85836666666667</v>
       </c>
       <c r="H3">
-        <v>42.072143</v>
+        <v>35.5751</v>
       </c>
       <c r="I3">
-        <v>0.884078128941323</v>
+        <v>0.8573549290250688</v>
       </c>
       <c r="J3">
-        <v>0.884078128941323</v>
+        <v>0.8573549290250688</v>
       </c>
       <c r="K3">
         <v>3</v>
@@ -623,25 +623,25 @@
         <v>0.249583</v>
       </c>
       <c r="N3">
-        <v>0.7487490000000001</v>
+        <v>0.7487489999999999</v>
       </c>
       <c r="O3">
-        <v>0.001916252549754972</v>
+        <v>0.002240475830004717</v>
       </c>
       <c r="P3">
-        <v>0.001916252549754972</v>
+        <v>0.002240475830004717</v>
       </c>
       <c r="Q3">
-        <v>3.500163888789667</v>
+        <v>2.959646727766666</v>
       </c>
       <c r="R3">
-        <v>31.501474999107</v>
+        <v>26.63682054989999</v>
       </c>
       <c r="S3">
-        <v>0.001694116968766415</v>
+        <v>0.001920882996216076</v>
       </c>
       <c r="T3">
-        <v>0.001694116968766415</v>
+        <v>0.001920882996216076</v>
       </c>
     </row>
     <row r="4" spans="1:20">
@@ -649,14 +649,14 @@
         <v>20</v>
       </c>
       <c r="B4" t="s">
+        <v>23</v>
+      </c>
+      <c r="C4" t="s">
         <v>24</v>
       </c>
-      <c r="C4" t="s">
+      <c r="D4" t="s">
         <v>25</v>
       </c>
-      <c r="D4" t="s">
-        <v>26</v>
-      </c>
       <c r="E4">
         <v>3</v>
       </c>
@@ -664,16 +664,16 @@
         <v>1</v>
       </c>
       <c r="G4">
-        <v>14.02404766666667</v>
+        <v>11.85836666666667</v>
       </c>
       <c r="H4">
-        <v>42.072143</v>
+        <v>35.5751</v>
       </c>
       <c r="I4">
-        <v>0.884078128941323</v>
+        <v>0.8573549290250688</v>
       </c>
       <c r="J4">
-        <v>0.884078128941323</v>
+        <v>0.8573549290250688</v>
       </c>
       <c r="K4">
         <v>3</v>
@@ -682,28 +682,28 @@
         <v>1</v>
       </c>
       <c r="M4">
-        <v>1.048924</v>
+        <v>3.632925333333334</v>
       </c>
       <c r="N4">
-        <v>3.146772</v>
+        <v>10.898776</v>
       </c>
       <c r="O4">
-        <v>0.008053446306435872</v>
+        <v>0.03261232296087941</v>
       </c>
       <c r="P4">
-        <v>0.008053446306435872</v>
+        <v>0.03261232296087941</v>
       </c>
       <c r="Q4">
-        <v>14.71016017471067</v>
+        <v>43.0805606752889</v>
       </c>
       <c r="R4">
-        <v>132.391441572396</v>
+        <v>387.7250460776</v>
       </c>
       <c r="S4">
-        <v>0.007119875742123234</v>
+        <v>0.02796033583746739</v>
       </c>
       <c r="T4">
-        <v>0.007119875742123234</v>
+        <v>0.02796033583746739</v>
       </c>
     </row>
     <row r="5" spans="1:20">
@@ -711,10 +711,10 @@
         <v>20</v>
       </c>
       <c r="B5" t="s">
+        <v>23</v>
+      </c>
+      <c r="C5" t="s">
         <v>24</v>
-      </c>
-      <c r="C5" t="s">
-        <v>25</v>
       </c>
       <c r="D5" t="s">
         <v>22</v>
@@ -726,16 +726,16 @@
         <v>1</v>
       </c>
       <c r="G5">
-        <v>14.02404766666667</v>
+        <v>11.85836666666667</v>
       </c>
       <c r="H5">
-        <v>42.072143</v>
+        <v>35.5751</v>
       </c>
       <c r="I5">
-        <v>0.884078128941323</v>
+        <v>0.8573549290250688</v>
       </c>
       <c r="J5">
-        <v>0.884078128941323</v>
+        <v>0.8573549290250688</v>
       </c>
       <c r="K5">
         <v>3</v>
@@ -744,28 +744,28 @@
         <v>1</v>
       </c>
       <c r="M5">
-        <v>0.7639916666666666</v>
+        <v>0.7472223333333332</v>
       </c>
       <c r="N5">
-        <v>2.291975</v>
+        <v>2.241667</v>
       </c>
       <c r="O5">
-        <v>0.005865788051435997</v>
+        <v>0.006707722791508481</v>
       </c>
       <c r="P5">
-        <v>0.005865788051435998</v>
+        <v>0.006707722791508481</v>
       </c>
       <c r="Q5">
-        <v>10.71425555026944</v>
+        <v>8.860836410188888</v>
       </c>
       <c r="R5">
-        <v>96.42829995242499</v>
+        <v>79.74752769169999</v>
       </c>
       <c r="S5">
-        <v>0.005185814925279905</v>
+        <v>0.005750899197833591</v>
       </c>
       <c r="T5">
-        <v>0.005185814925279906</v>
+        <v>0.005750899197833591</v>
       </c>
     </row>
     <row r="6" spans="1:20">
@@ -773,13 +773,13 @@
         <v>20</v>
       </c>
       <c r="B6" t="s">
+        <v>23</v>
+      </c>
+      <c r="C6" t="s">
         <v>24</v>
       </c>
-      <c r="C6" t="s">
-        <v>25</v>
-      </c>
       <c r="D6" t="s">
-        <v>23</v>
+        <v>26</v>
       </c>
       <c r="E6">
         <v>3</v>
@@ -788,16 +788,16 @@
         <v>1</v>
       </c>
       <c r="G6">
-        <v>14.02404766666667</v>
+        <v>11.85836666666667</v>
       </c>
       <c r="H6">
-        <v>42.072143</v>
+        <v>35.5751</v>
       </c>
       <c r="I6">
-        <v>0.884078128941323</v>
+        <v>0.8573549290250688</v>
       </c>
       <c r="J6">
-        <v>0.884078128941323</v>
+        <v>0.8573549290250688</v>
       </c>
       <c r="K6">
         <v>3</v>
@@ -806,28 +806,28 @@
         <v>1</v>
       </c>
       <c r="M6">
-        <v>1.522703666666667</v>
+        <v>0.2105813333333333</v>
       </c>
       <c r="N6">
-        <v>4.568111</v>
+        <v>0.631744</v>
       </c>
       <c r="O6">
-        <v>0.01169103978945379</v>
+        <v>0.001890362675276361</v>
       </c>
       <c r="P6">
-        <v>0.01169103978945379</v>
+        <v>0.001890362675276361</v>
       </c>
       <c r="Q6">
-        <v>21.35446880354144</v>
+        <v>2.497150663822222</v>
       </c>
       <c r="R6">
-        <v>192.190219231873</v>
+        <v>22.4743559744</v>
       </c>
       <c r="S6">
-        <v>0.01033579258243886</v>
+        <v>0.001620711757293204</v>
       </c>
       <c r="T6">
-        <v>0.01033579258243887</v>
+        <v>0.001620711757293204</v>
       </c>
     </row>
     <row r="7" spans="1:20">
@@ -835,10 +835,10 @@
         <v>21</v>
       </c>
       <c r="B7" t="s">
+        <v>23</v>
+      </c>
+      <c r="C7" t="s">
         <v>24</v>
-      </c>
-      <c r="C7" t="s">
-        <v>25</v>
       </c>
       <c r="D7" t="s">
         <v>20</v>
@@ -850,16 +850,16 @@
         <v>1</v>
       </c>
       <c r="G7">
-        <v>0.9221116666666668</v>
+        <v>0.9221116666666666</v>
       </c>
       <c r="H7">
         <v>2.766335</v>
       </c>
       <c r="I7">
-        <v>0.05813006175665678</v>
+        <v>0.06666828617725779</v>
       </c>
       <c r="J7">
-        <v>0.05813006175665678</v>
+        <v>0.06666828617725779</v>
       </c>
       <c r="K7">
         <v>3</v>
@@ -868,28 +868,28 @@
         <v>1</v>
       </c>
       <c r="M7">
-        <v>126.660156</v>
+        <v>106.5570066666667</v>
       </c>
       <c r="N7">
-        <v>379.980468</v>
+        <v>319.67102</v>
       </c>
       <c r="O7">
-        <v>0.9724734733029194</v>
+        <v>0.956549115742331</v>
       </c>
       <c r="P7">
-        <v>0.9724734733029196</v>
+        <v>0.956549115742331</v>
       </c>
       <c r="Q7">
-        <v>116.79480754942</v>
+        <v>98.2574590124111</v>
       </c>
       <c r="R7">
-        <v>1051.15326794478</v>
+        <v>884.3171311117</v>
       </c>
       <c r="S7">
-        <v>0.05652994305980922</v>
+        <v>0.06377149019091261</v>
       </c>
       <c r="T7">
-        <v>0.05652994305980923</v>
+        <v>0.06377149019091261</v>
       </c>
     </row>
     <row r="8" spans="1:20">
@@ -897,10 +897,10 @@
         <v>21</v>
       </c>
       <c r="B8" t="s">
+        <v>23</v>
+      </c>
+      <c r="C8" t="s">
         <v>24</v>
-      </c>
-      <c r="C8" t="s">
-        <v>25</v>
       </c>
       <c r="D8" t="s">
         <v>21</v>
@@ -912,16 +912,16 @@
         <v>1</v>
       </c>
       <c r="G8">
-        <v>0.9221116666666668</v>
+        <v>0.9221116666666666</v>
       </c>
       <c r="H8">
         <v>2.766335</v>
       </c>
       <c r="I8">
-        <v>0.05813006175665678</v>
+        <v>0.06666828617725779</v>
       </c>
       <c r="J8">
-        <v>0.05813006175665678</v>
+        <v>0.06666828617725779</v>
       </c>
       <c r="K8">
         <v>3</v>
@@ -933,25 +933,25 @@
         <v>0.249583</v>
       </c>
       <c r="N8">
-        <v>0.7487490000000001</v>
+        <v>0.7487489999999999</v>
       </c>
       <c r="O8">
-        <v>0.001916252549754972</v>
+        <v>0.002240475830004717</v>
       </c>
       <c r="P8">
-        <v>0.001916252549754972</v>
+        <v>0.002240475830004717</v>
       </c>
       <c r="Q8">
-        <v>0.2301433961016667</v>
+        <v>0.2301433961016666</v>
       </c>
       <c r="R8">
         <v>2.071290564915</v>
       </c>
       <c r="S8">
-        <v>0.0001113918790586076</v>
+        <v>0.0001493686838079837</v>
       </c>
       <c r="T8">
-        <v>0.0001113918790586076</v>
+        <v>0.0001493686838079836</v>
       </c>
     </row>
     <row r="9" spans="1:20">
@@ -959,14 +959,14 @@
         <v>21</v>
       </c>
       <c r="B9" t="s">
+        <v>23</v>
+      </c>
+      <c r="C9" t="s">
         <v>24</v>
       </c>
-      <c r="C9" t="s">
+      <c r="D9" t="s">
         <v>25</v>
       </c>
-      <c r="D9" t="s">
-        <v>26</v>
-      </c>
       <c r="E9">
         <v>3</v>
       </c>
@@ -974,16 +974,16 @@
         <v>1</v>
       </c>
       <c r="G9">
-        <v>0.9221116666666668</v>
+        <v>0.9221116666666666</v>
       </c>
       <c r="H9">
         <v>2.766335</v>
       </c>
       <c r="I9">
-        <v>0.05813006175665678</v>
+        <v>0.06666828617725779</v>
       </c>
       <c r="J9">
-        <v>0.05813006175665678</v>
+        <v>0.06666828617725779</v>
       </c>
       <c r="K9">
         <v>3</v>
@@ -992,28 +992,28 @@
         <v>1</v>
       </c>
       <c r="M9">
-        <v>1.048924</v>
+        <v>3.632925333333334</v>
       </c>
       <c r="N9">
-        <v>3.146772</v>
+        <v>10.898776</v>
       </c>
       <c r="O9">
-        <v>0.008053446306435872</v>
+        <v>0.03261232296087941</v>
       </c>
       <c r="P9">
-        <v>0.008053446306435872</v>
+        <v>0.03261232296087941</v>
       </c>
       <c r="Q9">
-        <v>0.9672250578466668</v>
+        <v>3.349962833995556</v>
       </c>
       <c r="R9">
-        <v>8.70502552062</v>
+        <v>30.14966550596</v>
       </c>
       <c r="S9">
-        <v>0.0004681473311470366</v>
+        <v>0.002174207680061064</v>
       </c>
       <c r="T9">
-        <v>0.0004681473311470366</v>
+        <v>0.002174207680061064</v>
       </c>
     </row>
     <row r="10" spans="1:20">
@@ -1021,10 +1021,10 @@
         <v>21</v>
       </c>
       <c r="B10" t="s">
+        <v>23</v>
+      </c>
+      <c r="C10" t="s">
         <v>24</v>
-      </c>
-      <c r="C10" t="s">
-        <v>25</v>
       </c>
       <c r="D10" t="s">
         <v>22</v>
@@ -1036,16 +1036,16 @@
         <v>1</v>
       </c>
       <c r="G10">
-        <v>0.9221116666666668</v>
+        <v>0.9221116666666666</v>
       </c>
       <c r="H10">
         <v>2.766335</v>
       </c>
       <c r="I10">
-        <v>0.05813006175665678</v>
+        <v>0.06666828617725779</v>
       </c>
       <c r="J10">
-        <v>0.05813006175665678</v>
+        <v>0.06666828617725779</v>
       </c>
       <c r="K10">
         <v>3</v>
@@ -1054,28 +1054,28 @@
         <v>1</v>
       </c>
       <c r="M10">
-        <v>0.7639916666666666</v>
+        <v>0.7472223333333332</v>
       </c>
       <c r="N10">
-        <v>2.291975</v>
+        <v>2.241667</v>
       </c>
       <c r="O10">
-        <v>0.005865788051435997</v>
+        <v>0.006707722791508481</v>
       </c>
       <c r="P10">
-        <v>0.005865788051435998</v>
+        <v>0.006707722791508481</v>
       </c>
       <c r="Q10">
-        <v>0.7044856290694445</v>
+        <v>0.6890224311605554</v>
       </c>
       <c r="R10">
-        <v>6.340370661625</v>
+        <v>6.201201880444999</v>
       </c>
       <c r="S10">
-        <v>0.000340978621681434</v>
+        <v>0.0004471923826620019</v>
       </c>
       <c r="T10">
-        <v>0.000340978621681434</v>
+        <v>0.0004471923826620019</v>
       </c>
     </row>
     <row r="11" spans="1:20">
@@ -1083,13 +1083,13 @@
         <v>21</v>
       </c>
       <c r="B11" t="s">
+        <v>23</v>
+      </c>
+      <c r="C11" t="s">
         <v>24</v>
       </c>
-      <c r="C11" t="s">
-        <v>25</v>
-      </c>
       <c r="D11" t="s">
-        <v>23</v>
+        <v>26</v>
       </c>
       <c r="E11">
         <v>3</v>
@@ -1098,16 +1098,16 @@
         <v>1</v>
       </c>
       <c r="G11">
-        <v>0.9221116666666668</v>
+        <v>0.9221116666666666</v>
       </c>
       <c r="H11">
         <v>2.766335</v>
       </c>
       <c r="I11">
-        <v>0.05813006175665678</v>
+        <v>0.06666828617725779</v>
       </c>
       <c r="J11">
-        <v>0.05813006175665678</v>
+        <v>0.06666828617725779</v>
       </c>
       <c r="K11">
         <v>3</v>
@@ -1116,28 +1116,28 @@
         <v>1</v>
       </c>
       <c r="M11">
-        <v>1.522703666666667</v>
+        <v>0.2105813333333333</v>
       </c>
       <c r="N11">
-        <v>4.568111</v>
+        <v>0.631744</v>
       </c>
       <c r="O11">
-        <v>0.01169103978945379</v>
+        <v>0.001890362675276361</v>
       </c>
       <c r="P11">
-        <v>0.01169103978945379</v>
+        <v>0.001890362675276361</v>
       </c>
       <c r="Q11">
-        <v>1.404102815909445</v>
+        <v>0.1941795042488889</v>
       </c>
       <c r="R11">
-        <v>12.636925343185</v>
+        <v>1.74761553824</v>
       </c>
       <c r="S11">
-        <v>0.0006796008649604803</v>
+        <v>0.0001260272398141311</v>
       </c>
       <c r="T11">
-        <v>0.0006796008649604804</v>
+        <v>0.0001260272398141311</v>
       </c>
     </row>
     <row r="12" spans="1:20">
@@ -1145,10 +1145,10 @@
         <v>22</v>
       </c>
       <c r="B12" t="s">
+        <v>23</v>
+      </c>
+      <c r="C12" t="s">
         <v>24</v>
-      </c>
-      <c r="C12" t="s">
-        <v>25</v>
       </c>
       <c r="D12" t="s">
         <v>20</v>
@@ -1160,16 +1160,16 @@
         <v>1</v>
       </c>
       <c r="G12">
-        <v>0.8368536666666667</v>
+        <v>1.050860666666667</v>
       </c>
       <c r="H12">
-        <v>2.510561</v>
+        <v>3.152582</v>
       </c>
       <c r="I12">
-        <v>0.05275538428059291</v>
+        <v>0.07597678479767336</v>
       </c>
       <c r="J12">
-        <v>0.05275538428059291</v>
+        <v>0.07597678479767336</v>
       </c>
       <c r="K12">
         <v>3</v>
@@ -1178,28 +1178,28 @@
         <v>1</v>
       </c>
       <c r="M12">
-        <v>126.660156</v>
+        <v>106.5570066666667</v>
       </c>
       <c r="N12">
-        <v>379.980468</v>
+        <v>319.67102</v>
       </c>
       <c r="O12">
-        <v>0.9724734733029194</v>
+        <v>0.956549115742331</v>
       </c>
       <c r="P12">
-        <v>0.9724734733029196</v>
+        <v>0.956549115742331</v>
       </c>
       <c r="Q12">
-        <v>105.996015969172</v>
+        <v>111.9765670637378</v>
       </c>
       <c r="R12">
-        <v>953.9641437225481</v>
+        <v>1007.78910357364</v>
       </c>
       <c r="S12">
-        <v>0.05130321178677843</v>
+        <v>0.07267552631515983</v>
       </c>
       <c r="T12">
-        <v>0.05130321178677843</v>
+        <v>0.07267552631515983</v>
       </c>
     </row>
     <row r="13" spans="1:20">
@@ -1207,10 +1207,10 @@
         <v>22</v>
       </c>
       <c r="B13" t="s">
+        <v>23</v>
+      </c>
+      <c r="C13" t="s">
         <v>24</v>
-      </c>
-      <c r="C13" t="s">
-        <v>25</v>
       </c>
       <c r="D13" t="s">
         <v>21</v>
@@ -1222,16 +1222,16 @@
         <v>1</v>
       </c>
       <c r="G13">
-        <v>0.8368536666666667</v>
+        <v>1.050860666666667</v>
       </c>
       <c r="H13">
-        <v>2.510561</v>
+        <v>3.152582</v>
       </c>
       <c r="I13">
-        <v>0.05275538428059291</v>
+        <v>0.07597678479767336</v>
       </c>
       <c r="J13">
-        <v>0.05275538428059291</v>
+        <v>0.07597678479767336</v>
       </c>
       <c r="K13">
         <v>3</v>
@@ -1243,25 +1243,25 @@
         <v>0.249583</v>
       </c>
       <c r="N13">
-        <v>0.7487490000000001</v>
+        <v>0.7487489999999999</v>
       </c>
       <c r="O13">
-        <v>0.001916252549754972</v>
+        <v>0.002240475830004717</v>
       </c>
       <c r="P13">
-        <v>0.001916252549754972</v>
+        <v>0.002240475830004717</v>
       </c>
       <c r="Q13">
-        <v>0.2088644486876667</v>
+        <v>0.2622769577686667</v>
       </c>
       <c r="R13">
-        <v>1.879780038189</v>
+        <v>2.360492619918</v>
       </c>
       <c r="S13">
-        <v>0.0001010926396409895</v>
+        <v>0.000170224149980657</v>
       </c>
       <c r="T13">
-        <v>0.0001010926396409895</v>
+        <v>0.000170224149980657</v>
       </c>
     </row>
     <row r="14" spans="1:20">
@@ -1269,14 +1269,14 @@
         <v>22</v>
       </c>
       <c r="B14" t="s">
+        <v>23</v>
+      </c>
+      <c r="C14" t="s">
         <v>24</v>
       </c>
-      <c r="C14" t="s">
+      <c r="D14" t="s">
         <v>25</v>
       </c>
-      <c r="D14" t="s">
-        <v>26</v>
-      </c>
       <c r="E14">
         <v>3</v>
       </c>
@@ -1284,16 +1284,16 @@
         <v>1</v>
       </c>
       <c r="G14">
-        <v>0.8368536666666667</v>
+        <v>1.050860666666667</v>
       </c>
       <c r="H14">
-        <v>2.510561</v>
+        <v>3.152582</v>
       </c>
       <c r="I14">
-        <v>0.05275538428059291</v>
+        <v>0.07597678479767336</v>
       </c>
       <c r="J14">
-        <v>0.05275538428059291</v>
+        <v>0.07597678479767336</v>
       </c>
       <c r="K14">
         <v>3</v>
@@ -1302,28 +1302,28 @@
         <v>1</v>
       </c>
       <c r="M14">
-        <v>1.048924</v>
+        <v>3.632925333333334</v>
       </c>
       <c r="N14">
-        <v>3.146772</v>
+        <v>10.898776</v>
       </c>
       <c r="O14">
-        <v>0.008053446306435872</v>
+        <v>0.03261232296087941</v>
       </c>
       <c r="P14">
-        <v>0.008053446306435872</v>
+        <v>0.03261232296087941</v>
       </c>
       <c r="Q14">
-        <v>0.8777958954546667</v>
+        <v>3.81769833773689</v>
       </c>
       <c r="R14">
-        <v>7.900163059092</v>
+        <v>34.35928503963201</v>
       </c>
       <c r="S14">
-        <v>0.000424862654679146</v>
+        <v>0.002477779443350957</v>
       </c>
       <c r="T14">
-        <v>0.000424862654679146</v>
+        <v>0.002477779443350957</v>
       </c>
     </row>
     <row r="15" spans="1:20">
@@ -1331,10 +1331,10 @@
         <v>22</v>
       </c>
       <c r="B15" t="s">
+        <v>23</v>
+      </c>
+      <c r="C15" t="s">
         <v>24</v>
-      </c>
-      <c r="C15" t="s">
-        <v>25</v>
       </c>
       <c r="D15" t="s">
         <v>22</v>
@@ -1346,16 +1346,16 @@
         <v>1</v>
       </c>
       <c r="G15">
-        <v>0.8368536666666667</v>
+        <v>1.050860666666667</v>
       </c>
       <c r="H15">
-        <v>2.510561</v>
+        <v>3.152582</v>
       </c>
       <c r="I15">
-        <v>0.05275538428059291</v>
+        <v>0.07597678479767336</v>
       </c>
       <c r="J15">
-        <v>0.05275538428059291</v>
+        <v>0.07597678479767336</v>
       </c>
       <c r="K15">
         <v>3</v>
@@ -1364,28 +1364,28 @@
         <v>1</v>
       </c>
       <c r="M15">
-        <v>0.7639916666666666</v>
+        <v>0.7472223333333332</v>
       </c>
       <c r="N15">
-        <v>2.291975</v>
+        <v>2.241667</v>
       </c>
       <c r="O15">
-        <v>0.005865788051435997</v>
+        <v>0.006707722791508481</v>
       </c>
       <c r="P15">
-        <v>0.005865788051435998</v>
+        <v>0.006707722791508481</v>
       </c>
       <c r="Q15">
-        <v>0.6393492275527778</v>
+        <v>0.7852265593548887</v>
       </c>
       <c r="R15">
-        <v>5.754143047975</v>
+        <v>7.067039034193999</v>
       </c>
       <c r="S15">
-        <v>0.0003094519027620163</v>
+        <v>0.0005096312110128887</v>
       </c>
       <c r="T15">
-        <v>0.0003094519027620163</v>
+        <v>0.0005096312110128887</v>
       </c>
     </row>
     <row r="16" spans="1:20">
@@ -1393,13 +1393,13 @@
         <v>22</v>
       </c>
       <c r="B16" t="s">
+        <v>23</v>
+      </c>
+      <c r="C16" t="s">
         <v>24</v>
       </c>
-      <c r="C16" t="s">
-        <v>25</v>
-      </c>
       <c r="D16" t="s">
-        <v>23</v>
+        <v>26</v>
       </c>
       <c r="E16">
         <v>3</v>
@@ -1408,16 +1408,16 @@
         <v>1</v>
       </c>
       <c r="G16">
-        <v>0.8368536666666667</v>
+        <v>1.050860666666667</v>
       </c>
       <c r="H16">
-        <v>2.510561</v>
+        <v>3.152582</v>
       </c>
       <c r="I16">
-        <v>0.05275538428059291</v>
+        <v>0.07597678479767336</v>
       </c>
       <c r="J16">
-        <v>0.05275538428059291</v>
+        <v>0.07597678479767336</v>
       </c>
       <c r="K16">
         <v>3</v>
@@ -1426,338 +1426,28 @@
         <v>1</v>
       </c>
       <c r="M16">
-        <v>1.522703666666667</v>
+        <v>0.2105813333333333</v>
       </c>
       <c r="N16">
-        <v>4.568111</v>
+        <v>0.631744</v>
       </c>
       <c r="O16">
-        <v>0.01169103978945379</v>
+        <v>0.001890362675276361</v>
       </c>
       <c r="P16">
-        <v>0.01169103978945379</v>
+        <v>0.001890362675276361</v>
       </c>
       <c r="Q16">
-        <v>1.274280146696778</v>
+        <v>0.2212916403342222</v>
       </c>
       <c r="R16">
-        <v>11.468521320271</v>
+        <v>1.991624763008</v>
       </c>
       <c r="S16">
-        <v>0.0006167652967323367</v>
+        <v>0.0001436236781690262</v>
       </c>
       <c r="T16">
-        <v>0.0006167652967323367</v>
-      </c>
-    </row>
-    <row r="17" spans="1:20">
-      <c r="A17" t="s">
-        <v>23</v>
-      </c>
-      <c r="B17" t="s">
-        <v>24</v>
-      </c>
-      <c r="C17" t="s">
-        <v>25</v>
-      </c>
-      <c r="D17" t="s">
-        <v>20</v>
-      </c>
-      <c r="E17">
-        <v>1</v>
-      </c>
-      <c r="F17">
-        <v>0.3333333333333333</v>
-      </c>
-      <c r="G17">
-        <v>0.07989233333333333</v>
-      </c>
-      <c r="H17">
-        <v>0.239677</v>
-      </c>
-      <c r="I17">
-        <v>0.005036425021427348</v>
-      </c>
-      <c r="J17">
-        <v>0.005036425021427348</v>
-      </c>
-      <c r="K17">
-        <v>3</v>
-      </c>
-      <c r="L17">
-        <v>1</v>
-      </c>
-      <c r="M17">
-        <v>126.660156</v>
-      </c>
-      <c r="N17">
-        <v>379.980468</v>
-      </c>
-      <c r="O17">
-        <v>0.9724734733029194</v>
-      </c>
-      <c r="P17">
-        <v>0.9724734733029196</v>
-      </c>
-      <c r="Q17">
-        <v>10.119175403204</v>
-      </c>
-      <c r="R17">
-        <v>91.07257862883601</v>
-      </c>
-      <c r="S17">
-        <v>0.004897789733617184</v>
-      </c>
-      <c r="T17">
-        <v>0.004897789733617185</v>
-      </c>
-    </row>
-    <row r="18" spans="1:20">
-      <c r="A18" t="s">
-        <v>23</v>
-      </c>
-      <c r="B18" t="s">
-        <v>24</v>
-      </c>
-      <c r="C18" t="s">
-        <v>25</v>
-      </c>
-      <c r="D18" t="s">
-        <v>21</v>
-      </c>
-      <c r="E18">
-        <v>1</v>
-      </c>
-      <c r="F18">
-        <v>0.3333333333333333</v>
-      </c>
-      <c r="G18">
-        <v>0.07989233333333333</v>
-      </c>
-      <c r="H18">
-        <v>0.239677</v>
-      </c>
-      <c r="I18">
-        <v>0.005036425021427348</v>
-      </c>
-      <c r="J18">
-        <v>0.005036425021427348</v>
-      </c>
-      <c r="K18">
-        <v>3</v>
-      </c>
-      <c r="L18">
-        <v>1</v>
-      </c>
-      <c r="M18">
-        <v>0.249583</v>
-      </c>
-      <c r="N18">
-        <v>0.7487490000000001</v>
-      </c>
-      <c r="O18">
-        <v>0.001916252549754972</v>
-      </c>
-      <c r="P18">
-        <v>0.001916252549754972</v>
-      </c>
-      <c r="Q18">
-        <v>0.01993976823033334</v>
-      </c>
-      <c r="R18">
-        <v>0.179457914073</v>
-      </c>
-      <c r="S18">
-        <v>9.651062288959897E-06</v>
-      </c>
-      <c r="T18">
-        <v>9.651062288959899E-06</v>
-      </c>
-    </row>
-    <row r="19" spans="1:20">
-      <c r="A19" t="s">
-        <v>23</v>
-      </c>
-      <c r="B19" t="s">
-        <v>24</v>
-      </c>
-      <c r="C19" t="s">
-        <v>25</v>
-      </c>
-      <c r="D19" t="s">
-        <v>26</v>
-      </c>
-      <c r="E19">
-        <v>1</v>
-      </c>
-      <c r="F19">
-        <v>0.3333333333333333</v>
-      </c>
-      <c r="G19">
-        <v>0.07989233333333333</v>
-      </c>
-      <c r="H19">
-        <v>0.239677</v>
-      </c>
-      <c r="I19">
-        <v>0.005036425021427348</v>
-      </c>
-      <c r="J19">
-        <v>0.005036425021427348</v>
-      </c>
-      <c r="K19">
-        <v>3</v>
-      </c>
-      <c r="L19">
-        <v>1</v>
-      </c>
-      <c r="M19">
-        <v>1.048924</v>
-      </c>
-      <c r="N19">
-        <v>3.146772</v>
-      </c>
-      <c r="O19">
-        <v>0.008053446306435872</v>
-      </c>
-      <c r="P19">
-        <v>0.008053446306435872</v>
-      </c>
-      <c r="Q19">
-        <v>0.08380098584933332</v>
-      </c>
-      <c r="R19">
-        <v>0.7542088726439999</v>
-      </c>
-      <c r="S19">
-        <v>4.056057848645529E-05</v>
-      </c>
-      <c r="T19">
-        <v>4.056057848645529E-05</v>
-      </c>
-    </row>
-    <row r="20" spans="1:20">
-      <c r="A20" t="s">
-        <v>23</v>
-      </c>
-      <c r="B20" t="s">
-        <v>24</v>
-      </c>
-      <c r="C20" t="s">
-        <v>25</v>
-      </c>
-      <c r="D20" t="s">
-        <v>22</v>
-      </c>
-      <c r="E20">
-        <v>1</v>
-      </c>
-      <c r="F20">
-        <v>0.3333333333333333</v>
-      </c>
-      <c r="G20">
-        <v>0.07989233333333333</v>
-      </c>
-      <c r="H20">
-        <v>0.239677</v>
-      </c>
-      <c r="I20">
-        <v>0.005036425021427348</v>
-      </c>
-      <c r="J20">
-        <v>0.005036425021427348</v>
-      </c>
-      <c r="K20">
-        <v>3</v>
-      </c>
-      <c r="L20">
-        <v>1</v>
-      </c>
-      <c r="M20">
-        <v>0.7639916666666666</v>
-      </c>
-      <c r="N20">
-        <v>2.291975</v>
-      </c>
-      <c r="O20">
-        <v>0.005865788051435997</v>
-      </c>
-      <c r="P20">
-        <v>0.005865788051435998</v>
-      </c>
-      <c r="Q20">
-        <v>0.06103707689722222</v>
-      </c>
-      <c r="R20">
-        <v>0.5493336920749999</v>
-      </c>
-      <c r="S20">
-        <v>2.954260171264183E-05</v>
-      </c>
-      <c r="T20">
-        <v>2.954260171264183E-05</v>
-      </c>
-    </row>
-    <row r="21" spans="1:20">
-      <c r="A21" t="s">
-        <v>23</v>
-      </c>
-      <c r="B21" t="s">
-        <v>24</v>
-      </c>
-      <c r="C21" t="s">
-        <v>25</v>
-      </c>
-      <c r="D21" t="s">
-        <v>23</v>
-      </c>
-      <c r="E21">
-        <v>1</v>
-      </c>
-      <c r="F21">
-        <v>0.3333333333333333</v>
-      </c>
-      <c r="G21">
-        <v>0.07989233333333333</v>
-      </c>
-      <c r="H21">
-        <v>0.239677</v>
-      </c>
-      <c r="I21">
-        <v>0.005036425021427348</v>
-      </c>
-      <c r="J21">
-        <v>0.005036425021427348</v>
-      </c>
-      <c r="K21">
-        <v>3</v>
-      </c>
-      <c r="L21">
-        <v>1</v>
-      </c>
-      <c r="M21">
-        <v>1.522703666666667</v>
-      </c>
-      <c r="N21">
-        <v>4.568111</v>
-      </c>
-      <c r="O21">
-        <v>0.01169103978945379</v>
-      </c>
-      <c r="P21">
-        <v>0.01169103978945379</v>
-      </c>
-      <c r="Q21">
-        <v>0.1216523489052222</v>
-      </c>
-      <c r="R21">
-        <v>1.094871140147</v>
-      </c>
-      <c r="S21">
-        <v>5.888104532210778E-05</v>
-      </c>
-      <c r="T21">
-        <v>5.888104532210779E-05</v>
+        <v>0.0001436236781690262</v>
       </c>
     </row>
   </sheetData>
